--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,34 +1528,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.743415893791914</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>18485.6</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04002778947189373</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
         <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1242981404229443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00490817992779415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1563,34 +1561,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.516374128646075</v>
+        <v>1.297897196261682</v>
       </c>
       <c r="C32" t="n">
-        <v>2265</v>
+        <v>2222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007052291106241539</v>
+        <v>0.002628504672897196</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="F32" t="n">
-        <v>147.4</v>
+        <v>272.5</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1023365636679312</v>
+        <v>0.1591705607476636</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>23.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006562597733466744</v>
+        <v>0.01372663551401869</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1598,104 +1596,65 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.47305785123967</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>6303.6</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01641873278236915</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>29.8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0265564738292011</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001763085399449036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>9.941856090662251</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>18698.8</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04483485832705165</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>387</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
         <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2388622264459989</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01057342292541073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2.739134966128192</v>
-      </c>
-      <c r="C35" t="n">
-        <v>5256.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.02136529442417926</v>
-      </c>
-      <c r="E35" t="n">
-        <v>41</v>
-      </c>
-      <c r="F35" t="n">
-        <v>166.6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.08681605002605523</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.00198019801980198</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,35 +1626,383 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.253067484662577</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5302.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.03466257668711657</v>
+      </c>
+      <c r="E34" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>207</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1269938650306748</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.00245398773006135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.649377593360996</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7915.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0276625172890733</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1120331950207469</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.00437989857076994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J38" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.008167217339014521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.686192441575164</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4940.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01922476690873743</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1187514263010913</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003086678567510356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.743415893791914</v>
+      </c>
+      <c r="C40" t="n">
+        <v>18485.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.04002778947189373</v>
+      </c>
+      <c r="E40" t="n">
+        <v>84</v>
+      </c>
+      <c r="F40" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1242981404229443</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.00490817992779415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2.686192441575164</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4940.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01922476690873743</v>
+      </c>
+      <c r="E41" t="n">
+        <v>33</v>
+      </c>
+      <c r="F41" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1187514263010913</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.003086678567510356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.47305785123967</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6303.6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01641873278236915</v>
+      </c>
+      <c r="E42" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0265564738292011</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.001763085399449036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.764476155827955</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13106.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01670651213554389</v>
+      </c>
+      <c r="E43" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.07387201437406728</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.00546712006355476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.739134966128192</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5256.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02136529442417926</v>
+      </c>
+      <c r="E44" t="n">
+        <v>41</v>
+      </c>
+      <c r="F44" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.08681605002605523</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.00198019801980198</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>Alone WolF034</t>
+  </si>
+  <si>
+    <t>OsmanGazi0505</t>
+  </si>
+  <si>
+    <t>Mallorn</t>
+  </si>
+  <si>
+    <t>TheImperium</t>
+  </si>
+  <si>
+    <t>Memoşata</t>
+  </si>
+  <si>
+    <t>god damn u suck</t>
+  </si>
+  <si>
+    <t>hobosapien1</t>
+  </si>
+  <si>
+    <t>PYKEntakill</t>
   </si>
 </sst>
 </file>
@@ -468,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,7 +1818,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>2.686192441575164</v>
@@ -1832,177 +1853,667 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.743415893791914</v>
+        <v>6.764476155827955</v>
       </c>
       <c r="C40" t="n">
-        <v>18485.6</v>
+        <v>13106.2</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04002778947189373</v>
+        <v>0.01670651213554389</v>
       </c>
       <c r="E40" t="n">
-        <v>84</v>
+        <v>32.8</v>
       </c>
       <c r="F40" t="n">
-        <v>229.6</v>
+        <v>144.2</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1242981404229443</v>
+        <v>0.07387201437406728</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00490817992779415</v>
+        <v>0.00546712006355476</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.686192441575164</v>
+        <v>4.601146283614828</v>
       </c>
       <c r="C41" t="n">
-        <v>4940.8</v>
+        <v>8222</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01922476690873743</v>
+        <v>0.03186341646984259</v>
       </c>
       <c r="E41" t="n">
-        <v>33</v>
+        <v>55.6</v>
       </c>
       <c r="F41" t="n">
-        <v>215.4</v>
+        <v>280.8</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1187514263010913</v>
+        <v>0.154526359571592</v>
       </c>
       <c r="J41" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003086678567510356</v>
+        <v>0.006825017206633095</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.47305785123967</v>
+        <v>2.66602457655264</v>
       </c>
       <c r="C42" t="n">
-        <v>6303.6</v>
+        <v>8027.4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01641873278236915</v>
+        <v>0.01693789438724676</v>
       </c>
       <c r="E42" t="n">
-        <v>29.8</v>
+        <v>51</v>
       </c>
       <c r="F42" t="n">
-        <v>48.2</v>
+        <v>193.6</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0265564738292011</v>
+        <v>0.06429757555629359</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>0.001763085399449036</v>
+        <v>0.001660577881102624</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.764476155827955</v>
+        <v>4.709765260580623</v>
       </c>
       <c r="C43" t="n">
-        <v>13106.2</v>
+        <v>8880</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01670651213554389</v>
+        <v>0.03577748863238895</v>
       </c>
       <c r="E43" t="n">
-        <v>32.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>144.2</v>
+        <v>204.2</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07387201437406728</v>
+        <v>0.1078900314795383</v>
       </c>
       <c r="J43" t="n">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00546712006355476</v>
+        <v>0.004447037425673313</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.322405523740514</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11499.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.05329568716167528</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1618235216992612</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.009080032401669283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.04804347826087</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3512.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.03210989430096982</v>
+      </c>
+      <c r="E45" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>147</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.08620600414078675</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.006946169772256728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.122644163150492</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3018.4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01828410689170183</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26</v>
+      </c>
+      <c r="F46" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.06722925457102671</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.001406469760900141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.739134966128192</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5256.4</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.02136529442417926</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="B47" t="n">
+        <v>5.449437357377095</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10147.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.03793728796143418</v>
+      </c>
+      <c r="E47" t="n">
+        <v>72</v>
+      </c>
+      <c r="F47" t="n">
+        <v>323.6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.17855598675708</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.006341493230895424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.720225988700565</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4814.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01751412429378531</v>
+      </c>
+      <c r="E48" t="n">
+        <v>31</v>
+      </c>
+      <c r="F48" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.07717514124293785</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.002485875706214689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.156962025316456</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1645.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02165963431786217</v>
+      </c>
+      <c r="E49" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>249</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1751054852320675</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.002531645569620253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.577926580861201</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8986.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01983526296622257</v>
+      </c>
+      <c r="E50" t="n">
+        <v>37</v>
+      </c>
+      <c r="F50" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="G50" t="s">
         <v>41</v>
       </c>
-      <c r="F44" t="n">
-        <v>166.6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.08681605002605523</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.00198019801980198</v>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1949690809435287</v>
+      </c>
+      <c r="J50" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.008763317485602414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.732152492161565</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4754.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01058489950476475</v>
+      </c>
+      <c r="E51" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1699525553653752</v>
+      </c>
+      <c r="J51" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01215288164343084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.151435406698565</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5269.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02009569377990431</v>
+      </c>
+      <c r="E52" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.06937799043062201</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.001555023923444976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6.383743300662566</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12258.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.04023672888935409</v>
+      </c>
+      <c r="E53" t="n">
+        <v>81</v>
+      </c>
+      <c r="F53" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.13711238076999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.007707535390238893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8.743415893791914</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18485.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.04002778947189373</v>
+      </c>
+      <c r="E54" t="n">
+        <v>84</v>
+      </c>
+      <c r="F54" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1242981404229443</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.00490817992779415</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.732152492161565</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4754.8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01058489950476475</v>
+      </c>
+      <c r="E55" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.1699525553653752</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01215288164343084</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.151435406698565</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5269.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.02009569377990431</v>
+      </c>
+      <c r="E56" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>116</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.06937799043062201</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.001555023923444976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6.383743300662566</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12258.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.04023672888935409</v>
+      </c>
+      <c r="E57" t="n">
+        <v>81</v>
+      </c>
+      <c r="F57" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.13711238076999</v>
+      </c>
+      <c r="J57" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.007707535390238893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J58" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.008167217339014521</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>PYKEntakill</t>
+  </si>
+  <si>
+    <t>JaIisco</t>
+  </si>
+  <si>
+    <t>Booogeyman</t>
+  </si>
+  <si>
+    <t>Cantare</t>
+  </si>
+  <si>
+    <t>Poppy Gods</t>
+  </si>
+  <si>
+    <t>Ithryn L</t>
   </si>
 </sst>
 </file>
@@ -489,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,22 +2358,22 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.743415893791914</v>
+        <v>3.203383214053351</v>
       </c>
       <c r="C54" t="n">
-        <v>18485.6</v>
+        <v>4923.6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04002778947189373</v>
+        <v>0.01535458685751464</v>
       </c>
       <c r="E54" t="n">
-        <v>84</v>
+        <v>23.6</v>
       </c>
       <c r="F54" t="n">
-        <v>229.6</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -2367,33 +2382,33 @@
         <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1242981404229443</v>
+        <v>0.08197787898503578</v>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00490817992779415</v>
+        <v>0.0022121014964216</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.732152492161565</v>
+        <v>1.775319622012229</v>
       </c>
       <c r="C55" t="n">
-        <v>4754.8</v>
+        <v>3193.8</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01058489950476475</v>
+        <v>0.01634241245136187</v>
       </c>
       <c r="E55" t="n">
-        <v>18.2</v>
+        <v>29.4</v>
       </c>
       <c r="F55" t="n">
-        <v>286.2</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2402,33 +2417,33 @@
         <v>11</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1699525553653752</v>
+        <v>0.02279043913285158</v>
       </c>
       <c r="J55" t="n">
-        <v>21.2</v>
+        <v>4.4</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01215288164343084</v>
+        <v>0.002445803224013341</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.151435406698565</v>
+        <v>4.58653314427508</v>
       </c>
       <c r="C56" t="n">
-        <v>5269.2</v>
+        <v>8017.8</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02009569377990431</v>
+        <v>0.03247285569866215</v>
       </c>
       <c r="E56" t="n">
-        <v>33.6</v>
+        <v>56.2</v>
       </c>
       <c r="F56" t="n">
-        <v>116</v>
+        <v>187.4</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -2437,33 +2452,33 @@
         <v>11</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06937799043062201</v>
+        <v>0.1066721808657292</v>
       </c>
       <c r="J56" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="K56" t="n">
-        <v>0.001555023923444976</v>
+        <v>0.003094384707287933</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.383743300662566</v>
+        <v>3.650427670597207</v>
       </c>
       <c r="C57" t="n">
-        <v>12258.8</v>
+        <v>5630</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04023672888935409</v>
+        <v>0.02674180615384204</v>
       </c>
       <c r="E57" t="n">
-        <v>81</v>
+        <v>44.4</v>
       </c>
       <c r="F57" t="n">
-        <v>253.6</v>
+        <v>227.4</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -2472,47 +2487,852 @@
         <v>11</v>
       </c>
       <c r="I57" t="n">
-        <v>0.13711238076999</v>
+        <v>0.1559623334516667</v>
       </c>
       <c r="J57" t="n">
-        <v>14.8</v>
+        <v>11.4</v>
       </c>
       <c r="K57" t="n">
-        <v>0.007707535390238893</v>
+        <v>0.00728984276207101</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.657101658255227</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2298.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.02033165104542177</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.04989185291997116</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0001441961067051189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.219149527515286</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3992.25</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.02042801556420233</v>
+      </c>
+      <c r="E59" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="F59" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02848804891606448</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.003057254030016676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.73316643034385</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10022.25</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.04059106962332769</v>
+      </c>
+      <c r="E60" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F60" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1333402260821616</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.003867980884109916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.071377072819034</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2873</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.02541456380677722</v>
+      </c>
+      <c r="E61" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F61" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.06236481614996395</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0001802451333813987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.451745292628223</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11335.4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.03638221087160513</v>
+      </c>
+      <c r="E62" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>293</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1866635435052542</v>
+      </c>
+      <c r="J62" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.008109015746182139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B63" t="n">
+        <v>4.768732242866904</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7445</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.03195378050521529</v>
+      </c>
+      <c r="E63" t="n">
+        <v>50.16666666666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>190.1666666666667</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1218115490704444</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.003099699320719843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.479433018343524</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2661.5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01361867704280156</v>
+      </c>
+      <c r="E64" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01899203261070965</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.002038169353344451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.822110953562567</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6681.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.02706071308221846</v>
+      </c>
+      <c r="E65" t="n">
+        <v>46.83333333333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>156.1666666666667</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.08889348405477437</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.002578653922739944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>7.109574936737488</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12432.33333333333</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0492776887849563</v>
+      </c>
+      <c r="E66" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>326.8333333333333</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2035312852870734</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01053000296511503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5.251755500694689</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9529.166666666666</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.06558663539837613</v>
+      </c>
+      <c r="E67" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>266.6666666666667</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1534088627803535</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.004630813408796165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.393041794365421</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4321.833333333333</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.03561639816772885</v>
+      </c>
+      <c r="E68" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>98</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0753000669539336</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.001234990624037989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.548397645519948</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2367.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.02043819489862655</v>
+      </c>
+      <c r="E69" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="F69" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.06376716808371484</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.002616088947024199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.158510638297872</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.02154255319148936</v>
+      </c>
+      <c r="E70" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="F70" t="n">
+        <v>107</v>
+      </c>
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.1138297872340426</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0007978723404255319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.703620136892431</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6127.25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.04150350867466872</v>
+      </c>
+      <c r="E71" t="n">
+        <v>67</v>
+      </c>
+      <c r="F71" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1027973605081667</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.005183907954944446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.933228192857932</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2893.4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.02065910352140298</v>
+      </c>
+      <c r="E72" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1252319415552276</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.006262433353588783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.278052291732825</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1142.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0271842913094104</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.2741484069016619</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0006382978723404255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.962896109513945</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4901.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.03320280693973497</v>
+      </c>
+      <c r="E74" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="F74" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.08223788840653333</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.004147126363955557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.710934922957702</v>
+      </c>
+      <c r="C75" t="n">
+        <v>11434.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0404788960127518</v>
+      </c>
+      <c r="E75" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.2035710766994756</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.004878862988729487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.922961909838907</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15499.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0439786500407446</v>
+      </c>
+      <c r="E76" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F76" t="n">
+        <v>418.4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.2610849084904173</v>
+      </c>
+      <c r="J76" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01083898607259163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7.352278870698461</v>
+      </c>
+      <c r="C77" t="n">
+        <v>13452.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.03998785955724499</v>
+      </c>
+      <c r="E77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>290.2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1626965738779845</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.008076131122476515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.203383214053351</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4923.6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.01535458685751464</v>
+      </c>
+      <c r="E78" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>126</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.08197787898503578</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0022121014964216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.775319622012229</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3193.8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.01634241245136187</v>
+      </c>
+      <c r="E79" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>41</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.02279043913285158</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.002445803224013341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.58653314427508</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8017.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.03247285569866215</v>
+      </c>
+      <c r="E80" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1066721808657292</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.003094384707287933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n">
         <v>1.901710291787398</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C81" t="n">
         <v>4185.8</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D81" t="n">
         <v>0.01349240180076153</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E81" t="n">
         <v>29.6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F81" t="n">
         <v>204.4</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G81" t="s">
         <v>15</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H81" t="s">
         <v>16</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I81" t="n">
         <v>0.09128055152368671</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J81" t="n">
         <v>18.6</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K81" t="n">
         <v>0.008167217339014521</v>
       </c>
     </row>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -156,6 +156,36 @@
   </si>
   <si>
     <t>Ithryn L</t>
+  </si>
+  <si>
+    <t>CraZySauND</t>
+  </si>
+  <si>
+    <t>ALERNN</t>
+  </si>
+  <si>
+    <t>aXeProvaSe</t>
+  </si>
+  <si>
+    <t>Indiscipliné</t>
+  </si>
+  <si>
+    <t>MalphitePataküte</t>
+  </si>
+  <si>
+    <t>Jin Air Sherlock</t>
+  </si>
+  <si>
+    <t>beyazşarap</t>
+  </si>
+  <si>
+    <t>SquirtleSama</t>
+  </si>
+  <si>
+    <t>Felis</t>
+  </si>
+  <si>
+    <t>MURAT8991</t>
   </si>
 </sst>
 </file>
@@ -504,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,142 +3228,422 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.203383214053351</v>
+        <v>5.113998524965676</v>
       </c>
       <c r="C78" t="n">
-        <v>4923.6</v>
+        <v>11014</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01535458685751464</v>
+        <v>0.01131881771760554</v>
       </c>
       <c r="E78" t="n">
         <v>23.6</v>
       </c>
       <c r="F78" t="n">
-        <v>126</v>
+        <v>420.2</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08197787898503578</v>
+        <v>0.2269467320450191</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>33</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0022121014964216</v>
+        <v>0.01653130590447264</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.775319622012229</v>
+        <v>1.566013897662666</v>
       </c>
       <c r="C79" t="n">
-        <v>3193.8</v>
+        <v>2479</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.00972836386607707</v>
       </c>
       <c r="E79" t="n">
-        <v>29.4</v>
+        <v>15.4</v>
       </c>
       <c r="F79" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.04611497157296272</v>
       </c>
       <c r="J79" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="K79" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.00341124447252053</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.58653314427508</v>
+        <v>2.86420715924647</v>
       </c>
       <c r="C80" t="n">
-        <v>8017.8</v>
+        <v>4495.8</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03247285569866215</v>
+        <v>0.02169492781710263</v>
       </c>
       <c r="E80" t="n">
-        <v>56.2</v>
+        <v>33.4</v>
       </c>
       <c r="F80" t="n">
-        <v>187.4</v>
+        <v>290</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1066721808657292</v>
+        <v>0.1842126657925904</v>
       </c>
       <c r="J80" t="n">
-        <v>5.4</v>
+        <v>16.2</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003094384707287933</v>
+        <v>0.01027141198302577</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.901710291787398</v>
+        <v>3.356432414511548</v>
       </c>
       <c r="C81" t="n">
-        <v>4185.8</v>
+        <v>6724</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.005812637467104549</v>
       </c>
       <c r="E81" t="n">
-        <v>29.6</v>
+        <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>204.4</v>
+        <v>159.4</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s">
         <v>16</v>
       </c>
       <c r="I81" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.078201537036478</v>
       </c>
       <c r="J81" t="n">
-        <v>18.6</v>
+        <v>17.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.008387499278405278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.258129175946548</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2259.6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.007015590200445435</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F82" t="n">
+        <v>68</v>
+      </c>
+      <c r="G82" t="s">
+        <v>51</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0378619153674833</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.00267260579064588</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.181230133145165</v>
+      </c>
+      <c r="C83" t="n">
+        <v>9006.4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.006005645828823744</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>326.6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1664355963826107</v>
+      </c>
+      <c r="J83" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01113957635983178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.011900802244126</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6238.8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01711939642881913</v>
+      </c>
+      <c r="E84" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>51</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2373082821494902</v>
+      </c>
+      <c r="J84" t="n">
+        <v>8</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.004887138662618198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.5796460763033</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8023.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.02273389500018395</v>
+      </c>
+      <c r="E85" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.1021676906662742</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.005465950480114786</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.385786073223259</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1930.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01837760229720029</v>
+      </c>
+      <c r="E86" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F86" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="G86" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.06058865757358219</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0007178750897343861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2.763299466289665</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3713.2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.03547674290133686</v>
+      </c>
+      <c r="E87" t="n">
+        <v>47</v>
+      </c>
+      <c r="F87" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.1575057666420894</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001648030773462849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5.62195035045776</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9004</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.04684623741123118</v>
+      </c>
+      <c r="E88" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>299</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1883767482497907</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.006285322641137803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.05357483317445186</v>
+      </c>
+      <c r="C89" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0005719733079122974</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.02040038131553861</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3198,142 +3198,282 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.203383214053351</v>
+        <v>6.647104335594115</v>
       </c>
       <c r="C78" t="n">
-        <v>4923.6</v>
+        <v>10770</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01535458685751464</v>
+        <v>0.05759089244720986</v>
       </c>
       <c r="E78" t="n">
-        <v>23.6</v>
+        <v>94.2</v>
       </c>
       <c r="F78" t="n">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08197787898503578</v>
+        <v>0.1732162768976951</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>12.2</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0022121014964216</v>
+        <v>0.007451505815154731</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.775319622012229</v>
+        <v>3.790142606791837</v>
       </c>
       <c r="C79" t="n">
-        <v>3193.8</v>
+        <v>5451.2</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.06008874252245078</v>
       </c>
       <c r="E79" t="n">
-        <v>29.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>41</v>
+        <v>189.8</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.1326668137825705</v>
       </c>
       <c r="J79" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="K79" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.002312426436265864</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>4.58653314427508</v>
+        <v>6.52303547698906</v>
       </c>
       <c r="C80" t="n">
-        <v>8017.8</v>
+        <v>11729.4</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03247285569866215</v>
+        <v>0.06017257123245481</v>
       </c>
       <c r="E80" t="n">
-        <v>56.2</v>
+        <v>106.8</v>
       </c>
       <c r="F80" t="n">
-        <v>187.4</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1657745401248908</v>
+      </c>
+      <c r="J80" t="n">
         <v>13</v>
       </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.1066721808657292</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.4</v>
-      </c>
       <c r="K80" t="n">
-        <v>0.003094384707287933</v>
+        <v>0.007222150099747813</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.203383214053351</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4923.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01535458685751464</v>
+      </c>
+      <c r="E81" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>126</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.08197787898503578</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0022121014964216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B81" t="n">
-        <v>1.901710291787398</v>
-      </c>
-      <c r="C81" t="n">
-        <v>4185.8</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.01349240180076153</v>
-      </c>
-      <c r="E81" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F81" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.09128055152368671</v>
-      </c>
-      <c r="J81" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.008167217339014521</v>
+      <c r="B82" t="n">
+        <v>1.775319622012229</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3193.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01634241245136187</v>
+      </c>
+      <c r="E82" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>41</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.02279043913285158</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.002445803224013341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.58653314427508</v>
+      </c>
+      <c r="C83" t="n">
+        <v>8017.8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.03247285569866215</v>
+      </c>
+      <c r="E83" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1066721808657292</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.003094384707287933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.52303547698906</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11729.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.06017257123245481</v>
+      </c>
+      <c r="E84" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>284</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.1657745401248908</v>
+      </c>
+      <c r="J84" t="n">
+        <v>13</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.007222150099747813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.790142606791837</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5451.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.06008874252245078</v>
+      </c>
+      <c r="E85" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="F85" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.1326668137825705</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.002312426436265864</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Ithryn L</t>
+  </si>
+  <si>
+    <t>Mr Kayn</t>
+  </si>
+  <si>
+    <t>Halter Penguen</t>
+  </si>
+  <si>
+    <t>Mrs Máster Yi</t>
+  </si>
+  <si>
+    <t>Negabrione</t>
+  </si>
+  <si>
+    <t>HornyCorn</t>
+  </si>
+  <si>
+    <t>MagusApex</t>
   </si>
 </sst>
 </file>
@@ -504,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,7 +3286,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>6.52303547698906</v>
@@ -3303,177 +3321,527 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.203383214053351</v>
+        <v>3.005318138651472</v>
       </c>
       <c r="C81" t="n">
-        <v>4923.6</v>
+        <v>6329.2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01535458685751464</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E81" t="n">
-        <v>23.6</v>
+        <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I81" t="n">
-        <v>0.08197787898503578</v>
+        <v>0.03181386514719848</v>
       </c>
       <c r="J81" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0022121014964216</v>
+        <v>0.002659069325735992</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.775319622012229</v>
+        <v>6.257362574388895</v>
       </c>
       <c r="C82" t="n">
-        <v>3193.8</v>
+        <v>10753.6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.05203516360295726</v>
       </c>
       <c r="E82" t="n">
-        <v>29.4</v>
+        <v>95</v>
       </c>
       <c r="F82" t="n">
-        <v>41</v>
+        <v>393.2</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.2543512071886021</v>
       </c>
       <c r="J82" t="n">
-        <v>4.4</v>
+        <v>15.6</v>
       </c>
       <c r="K82" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.01003492981994257</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.58653314427508</v>
+        <v>1.249264705882353</v>
       </c>
       <c r="C83" t="n">
-        <v>8017.8</v>
+        <v>2038.8</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03247285569866215</v>
+        <v>0.01409313725490196</v>
       </c>
       <c r="E83" t="n">
-        <v>56.2</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
-        <v>187.4</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1066721808657292</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="J83" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>0.003094384707287933</v>
+        <v>0.001838235294117647</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.52303547698906</v>
+        <v>7.410958116892823</v>
       </c>
       <c r="C84" t="n">
-        <v>11729.4</v>
+        <v>13175.2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06017257123245481</v>
+        <v>0.05164043510720542</v>
       </c>
       <c r="E84" t="n">
-        <v>106.8</v>
+        <v>91.2</v>
       </c>
       <c r="F84" t="n">
-        <v>284</v>
+        <v>278.8</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1657745401248908</v>
+        <v>0.1567269453783251</v>
       </c>
       <c r="J84" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>0.007222150099747813</v>
+        <v>0.004627791059971394</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.616710469051133</v>
+      </c>
+      <c r="C85" t="n">
+        <v>13486.4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.07052820193249709</v>
+      </c>
+      <c r="E85" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>601.6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.3650378058503125</v>
+      </c>
+      <c r="J85" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01215785495934224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.709306742640076</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3599.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.002089268755935423</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>140</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.06647673314339982</v>
+      </c>
+      <c r="J86" t="n">
+        <v>17</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.008072174738841406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.520541888502177</v>
+      </c>
+      <c r="C87" t="n">
+        <v>11403.8</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.06890925201887924</v>
+      </c>
+      <c r="E87" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>568.8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.3700377677125054</v>
+      </c>
+      <c r="J87" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.01184026237028092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.113987360476483</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5111</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.03567156940750339</v>
+      </c>
+      <c r="E88" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.1073600976001576</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.005132192138943827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B85" t="n">
-        <v>3.790142606791837</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5451.2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.06008874252245078</v>
-      </c>
-      <c r="E85" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="F85" t="n">
-        <v>189.8</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
-      <c r="H85" t="s">
-        <v>25</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.1326668137825705</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.002312426436265864</v>
+      <c r="B89" t="n">
+        <v>6.474714026753915</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8602</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.04634044514716931</v>
+      </c>
+      <c r="E89" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>328.6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.2473481266503256</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.007220967752454279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.791646791513082</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.01949175076877424</v>
+      </c>
+      <c r="E90" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.1749684198889241</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.002463335941977546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.07100063734863</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4818.4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.02179732313575526</v>
+      </c>
+      <c r="E91" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>198</v>
+      </c>
+      <c r="G91" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1261950286806883</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.003059273422562141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.833485927892299</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5897.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.02445485819541133</v>
+      </c>
+      <c r="E92" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>142</v>
+      </c>
+      <c r="G92" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.09318200287130592</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.005347130048487147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.829359333360753</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16197.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.08013202994381621</v>
+      </c>
+      <c r="E93" t="n">
+        <v>165</v>
+      </c>
+      <c r="F93" t="n">
+        <v>430.2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.2063731471137939</v>
+      </c>
+      <c r="J93" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.009152606233594018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.64523200920185</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8954.200000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.02991473419815112</v>
+      </c>
+      <c r="E94" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>610.2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.3863354585100985</v>
+      </c>
+      <c r="J94" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.009556019006126104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.652230980643308</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5297.6</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.03020442432290065</v>
+      </c>
+      <c r="E95" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>292</v>
+      </c>
+      <c r="G95" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.1968040937674682</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.00344223402841273</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="1" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>3.07100063734863</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="1" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>3.833485927892299</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="1" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>7.829359333360753</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="1" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>5.64523200920185</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="1" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>3.652230980643308</v>
@@ -3841,6 +3841,146 @@
         <v>5.4</v>
       </c>
       <c r="K95" t="n">
+        <v>0.00344223402841273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.07100063734863</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4818.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02179732313575526</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>198</v>
+      </c>
+      <c r="G96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.1261950286806883</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.003059273422562141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.829359333360753</v>
+      </c>
+      <c r="C97" t="n">
+        <v>16197.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.08013202994381621</v>
+      </c>
+      <c r="E97" t="n">
+        <v>165</v>
+      </c>
+      <c r="F97" t="n">
+        <v>430.2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.2063731471137939</v>
+      </c>
+      <c r="J97" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.009152606233594018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.64523200920185</v>
+      </c>
+      <c r="C98" t="n">
+        <v>8954.200000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.02991473419815112</v>
+      </c>
+      <c r="E98" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F98" t="n">
+        <v>610.2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.3863354585100985</v>
+      </c>
+      <c r="J98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.009556019006126104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.652230980643308</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5297.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.03020442432290065</v>
+      </c>
+      <c r="E99" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>292</v>
+      </c>
+      <c r="G99" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1968040937674682</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.00344223402841273</v>
       </c>
     </row>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>MagusApex</t>
+  </si>
+  <si>
+    <t>Shiller</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,142 +3849,177 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>3.07100063734863</v>
+        <v>1.901710291787398</v>
       </c>
       <c r="C96" t="n">
-        <v>4818.4</v>
+        <v>4185.8</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02179732313575526</v>
+        <v>0.01349240180076153</v>
       </c>
       <c r="E96" t="n">
-        <v>34.2</v>
+        <v>29.6</v>
       </c>
       <c r="F96" t="n">
-        <v>198</v>
+        <v>204.4</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1261950286806883</v>
+        <v>0.09128055152368671</v>
       </c>
       <c r="J96" t="n">
-        <v>4.8</v>
+        <v>18.6</v>
       </c>
       <c r="K96" t="n">
-        <v>0.003059273422562141</v>
+        <v>0.008167217339014521</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>7.829359333360753</v>
+        <v>2.791646791513082</v>
       </c>
       <c r="C97" t="n">
-        <v>16197.8</v>
+        <v>3890.6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08013202994381621</v>
+        <v>0.01949175076877424</v>
       </c>
       <c r="E97" t="n">
-        <v>165</v>
+        <v>28.2</v>
       </c>
       <c r="F97" t="n">
-        <v>430.2</v>
+        <v>221.4</v>
       </c>
       <c r="G97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2063731471137939</v>
+        <v>0.1749684198889241</v>
       </c>
       <c r="J97" t="n">
-        <v>19.6</v>
+        <v>3.2</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009152606233594018</v>
+        <v>0.002463335941977546</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>5.64523200920185</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C98" t="n">
-        <v>8954.200000000001</v>
+        <v>3315.8</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02991473419815112</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E98" t="n">
-        <v>49.4</v>
+        <v>22.4</v>
       </c>
       <c r="F98" t="n">
-        <v>610.2</v>
+        <v>40.6</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3863354585100985</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J98" t="n">
-        <v>15.2</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>0.009556019006126104</v>
+        <v>0.002478134110787172</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>3.652230980643308</v>
+        <v>9.48417331160671</v>
       </c>
       <c r="C99" t="n">
-        <v>5297.6</v>
+        <v>15096.8</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03020442432290065</v>
+        <v>0.04245232838056302</v>
       </c>
       <c r="E99" t="n">
-        <v>45.8</v>
+        <v>67</v>
       </c>
       <c r="F99" t="n">
-        <v>292</v>
+        <v>161.6</v>
       </c>
       <c r="G99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H99" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1968040937674682</v>
+        <v>0.1032920977440951</v>
       </c>
       <c r="J99" t="n">
         <v>5.4</v>
       </c>
       <c r="K99" t="n">
-        <v>0.00344223402841273</v>
+        <v>0.003379839878639451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.249264705882353</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01409313725490196</v>
+      </c>
+      <c r="E100" t="n">
+        <v>23</v>
+      </c>
+      <c r="F100" t="n">
+        <v>138</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.08455882352941177</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.001838235294117647</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -3846,142 +3846,140 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>3.07100063734863</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>4818.4</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02179732313575526</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>198</v>
-      </c>
-      <c r="G96" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
         <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1261950286806883</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0.003059273422562141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>7.829359333360753</v>
+        <v>1.775319622012229</v>
       </c>
       <c r="C97" t="n">
-        <v>16197.8</v>
+        <v>3193.8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08013202994381621</v>
+        <v>0.01634241245136187</v>
       </c>
       <c r="E97" t="n">
-        <v>165</v>
+        <v>29.4</v>
       </c>
       <c r="F97" t="n">
-        <v>430.2</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2063731471137939</v>
+        <v>0.02279043913285158</v>
       </c>
       <c r="J97" t="n">
-        <v>19.6</v>
+        <v>4.4</v>
       </c>
       <c r="K97" t="n">
-        <v>0.009152606233594018</v>
+        <v>0.002445803224013341</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B98" t="n">
-        <v>5.64523200920185</v>
+        <v>6.474714026753915</v>
       </c>
       <c r="C98" t="n">
-        <v>8954.200000000001</v>
+        <v>8602</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02991473419815112</v>
+        <v>0.04634044514716931</v>
       </c>
       <c r="E98" t="n">
-        <v>49.4</v>
+        <v>61.2</v>
       </c>
       <c r="F98" t="n">
-        <v>610.2</v>
+        <v>328.6</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3863354585100985</v>
+        <v>0.2473481266503256</v>
       </c>
       <c r="J98" t="n">
-        <v>15.2</v>
+        <v>9.6</v>
       </c>
       <c r="K98" t="n">
-        <v>0.009556019006126104</v>
+        <v>0.007220967752454279</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B99" t="n">
-        <v>3.652230980643308</v>
+        <v>2.383936531395372</v>
       </c>
       <c r="C99" t="n">
-        <v>5297.6</v>
+        <v>3065.4</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03020442432290065</v>
+        <v>0.01186318291444714</v>
       </c>
       <c r="E99" t="n">
-        <v>45.8</v>
+        <v>14.2</v>
       </c>
       <c r="F99" t="n">
-        <v>292</v>
+        <v>318.2</v>
       </c>
       <c r="G99" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1968040937674682</v>
+        <v>0.2513900194630072</v>
       </c>
       <c r="J99" t="n">
-        <v>5.4</v>
+        <v>11.8</v>
       </c>
       <c r="K99" t="n">
-        <v>0.00344223402841273</v>
+        <v>0.008399989526632901</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -522,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,90 +3846,92 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2.383936531395372</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>3065.4</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.01186318291444714</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>318.2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.2513900194630072</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>0.008399989526632901</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>1.775319622012229</v>
+        <v>11.47138019017781</v>
       </c>
       <c r="C97" t="n">
-        <v>3193.8</v>
+        <v>16820.8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01634241245136187</v>
+        <v>0.1148893923255633</v>
       </c>
       <c r="E97" t="n">
-        <v>29.4</v>
+        <v>165</v>
       </c>
       <c r="F97" t="n">
-        <v>41</v>
+        <v>373.4</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
         <v>11</v>
       </c>
       <c r="I97" t="n">
-        <v>0.02279043913285158</v>
+        <v>0.2602785146347409</v>
       </c>
       <c r="J97" t="n">
-        <v>4.4</v>
+        <v>15.4</v>
       </c>
       <c r="K97" t="n">
-        <v>0.002445803224013341</v>
+        <v>0.0102324902907245</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>6.474714026753915</v>
+        <v>6.506973090568204</v>
       </c>
       <c r="C98" t="n">
-        <v>8602</v>
+        <v>9534.4</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04634044514716931</v>
+        <v>0.04526183093699399</v>
       </c>
       <c r="E98" t="n">
-        <v>61.2</v>
+        <v>68.8</v>
       </c>
       <c r="F98" t="n">
-        <v>328.6</v>
+        <v>370.2</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
@@ -3938,47 +3940,185 @@
         <v>11</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2473481266503256</v>
+        <v>0.2520432498535652</v>
       </c>
       <c r="J98" t="n">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="K98" t="n">
-        <v>0.007220967752454279</v>
+        <v>0.008581153657621576</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.775319622012229</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3193.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01634241245136187</v>
+      </c>
+      <c r="E100" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.02279043913285158</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.002445803224013341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B101" t="n">
+        <v>11.47138019017781</v>
+      </c>
+      <c r="C101" t="n">
+        <v>16820.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1148893923255633</v>
+      </c>
+      <c r="E101" t="n">
+        <v>165</v>
+      </c>
+      <c r="F101" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.2602785146347409</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0102324902907245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.506973090568204</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9534.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.04526183093699399</v>
+      </c>
+      <c r="E102" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.2520432498535652</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.008581153657621576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
         <v>2.383936531395372</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C103" t="n">
         <v>3065.4</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D103" t="n">
         <v>0.01186318291444714</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E103" t="n">
         <v>14.2</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F103" t="n">
         <v>318.2</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G103" t="s">
         <v>24</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H103" t="s">
         <v>25</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I103" t="n">
         <v>0.2513900194630072</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J103" t="n">
         <v>11.8</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K103" t="n">
         <v>0.008399989526632901</v>
       </c>
     </row>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -177,6 +177,36 @@
   </si>
   <si>
     <t>Shiller</t>
+  </si>
+  <si>
+    <t>ZEUSLEONIDAS</t>
+  </si>
+  <si>
+    <t>MrJeey</t>
+  </si>
+  <si>
+    <t>MrFeared2</t>
+  </si>
+  <si>
+    <t>janer</t>
+  </si>
+  <si>
+    <t>CraZySauND</t>
+  </si>
+  <si>
+    <t>TheBabuş</t>
+  </si>
+  <si>
+    <t>One Axe One Dead</t>
+  </si>
+  <si>
+    <t>WK DARKSOUL</t>
+  </si>
+  <si>
+    <t>firetitanium</t>
+  </si>
+  <si>
+    <t>VodkaVısne</t>
   </si>
 </sst>
 </file>
@@ -525,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3849,177 +3879,597 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.901710291787398</v>
+        <v>2.416763848396501</v>
       </c>
       <c r="C96" t="n">
-        <v>4185.8</v>
+        <v>3315.8</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E96" t="n">
-        <v>29.6</v>
+        <v>22.4</v>
       </c>
       <c r="F96" t="n">
-        <v>204.4</v>
+        <v>40.6</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.02959183673469388</v>
       </c>
       <c r="J96" t="n">
-        <v>18.6</v>
+        <v>3.4</v>
       </c>
       <c r="K96" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.002478134110787172</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="1" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.791646791513082</v>
+        <v>9.48417331160671</v>
       </c>
       <c r="C97" t="n">
-        <v>3890.6</v>
+        <v>15096.8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01949175076877424</v>
+        <v>0.04245232838056302</v>
       </c>
       <c r="E97" t="n">
-        <v>28.2</v>
+        <v>67</v>
       </c>
       <c r="F97" t="n">
-        <v>221.4</v>
+        <v>161.6</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1749684198889241</v>
+        <v>0.1032920977440951</v>
       </c>
       <c r="J97" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="K97" t="n">
-        <v>0.002463335941977546</v>
+        <v>0.003379839878639451</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="1" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.416763848396501</v>
+        <v>9.8172712674672</v>
       </c>
       <c r="C98" t="n">
-        <v>3315.8</v>
+        <v>17528.8</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.05356790890609606</v>
       </c>
       <c r="E98" t="n">
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="F98" t="n">
-        <v>40.6</v>
+        <v>517.8</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s">
         <v>18</v>
       </c>
       <c r="I98" t="n">
-        <v>0.02959183673469388</v>
+        <v>0.2823194918295949</v>
       </c>
       <c r="J98" t="n">
-        <v>3.4</v>
+        <v>22.4</v>
       </c>
       <c r="K98" t="n">
-        <v>0.002478134110787172</v>
+        <v>0.01268496039844654</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="1" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.48417331160671</v>
+        <v>5.769948651010032</v>
       </c>
       <c r="C99" t="n">
-        <v>15096.8</v>
+        <v>12334.6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.04245232838056302</v>
+        <v>0.0199971367516869</v>
       </c>
       <c r="E99" t="n">
-        <v>67</v>
+        <v>42.4</v>
       </c>
       <c r="F99" t="n">
-        <v>161.6</v>
+        <v>267.4</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1032920977440951</v>
+        <v>0.121534995841974</v>
       </c>
       <c r="J99" t="n">
-        <v>5.4</v>
+        <v>16</v>
       </c>
       <c r="K99" t="n">
-        <v>0.003379839878639451</v>
+        <v>0.007107845510910871</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="1" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.249264705882353</v>
+        <v>10.12374107034511</v>
       </c>
       <c r="C100" t="n">
-        <v>2038.8</v>
+        <v>22705</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01409313725490196</v>
+        <v>0.05337801962829353</v>
       </c>
       <c r="E100" t="n">
-        <v>23</v>
+        <v>113.8</v>
       </c>
       <c r="F100" t="n">
-        <v>138</v>
+        <v>309.8</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
       </c>
       <c r="I100" t="n">
+        <v>0.1497239150437327</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.004102844333928736</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.806632301480704</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6275.4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03087753549261524</v>
+      </c>
+      <c r="E101" t="n">
+        <v>48</v>
+      </c>
+      <c r="F101" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.1267232950129705</v>
+      </c>
+      <c r="J101" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.004864133559390038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.428011791964018</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4535.4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.007421636954753133</v>
+      </c>
+      <c r="E102" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.1539782411660805</v>
+      </c>
+      <c r="J102" t="n">
+        <v>18</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.01031240043183583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.148555475112016</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7320.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.03319849749343103</v>
+      </c>
+      <c r="E103" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>59</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2167907261299671</v>
+      </c>
+      <c r="J103" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.005197258380652717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.058888385940507</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3285.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.00678685906282316</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>60</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.09330567526135938</v>
+      </c>
+      <c r="J104" t="n">
+        <v>19</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0120042738345398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.482600256149092</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6428.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.02738999215922067</v>
+      </c>
+      <c r="E105" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>439</v>
+      </c>
+      <c r="G105" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.245096442933215</v>
+      </c>
+      <c r="J105" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.01138272699919536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>8.136955811860352</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16993.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0144803555230739</v>
+      </c>
+      <c r="E106" t="n">
+        <v>31</v>
+      </c>
+      <c r="F106" t="n">
+        <v>375</v>
+      </c>
+      <c r="G106" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.2079742367147248</v>
+      </c>
+      <c r="J106" t="n">
+        <v>21</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0107336676381156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6.472223403732198</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13711.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.03595654640895758</v>
+      </c>
+      <c r="E107" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>402.2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1969604671362564</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.005900867149411031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.416763848396501</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="E108" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G108" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.02959183673469388</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.002478134110787172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9.48417331160671</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15096.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.04245232838056302</v>
+      </c>
+      <c r="E109" t="n">
+        <v>67</v>
+      </c>
+      <c r="F109" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.1032920977440951</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.003379839878639451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.249264705882353</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01409313725490196</v>
+      </c>
+      <c r="E110" t="n">
+        <v>23</v>
+      </c>
+      <c r="F110" t="n">
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="n">
         <v>0.08455882352941177</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J110" t="n">
         <v>3</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K110" t="n">
         <v>0.001838235294117647</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.710934922957702</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11434.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0404788960127518</v>
+      </c>
+      <c r="E111" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.2035710766994756</v>
+      </c>
+      <c r="J111" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.004878862988729487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E112" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J112" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.008167217339014521</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -47,6 +47,24 @@
     <t>Vision Point</t>
   </si>
   <si>
+    <t>regAssist</t>
+  </si>
+  <si>
+    <t>regDeaths</t>
+  </si>
+  <si>
+    <t>regKills</t>
+  </si>
+  <si>
+    <t>regTimeCCingOthers</t>
+  </si>
+  <si>
+    <t>regTotalDamageDealtToChampions</t>
+  </si>
+  <si>
+    <t>regVisionScore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Châllénger </t>
   </si>
   <si>
@@ -174,6 +192,12 @@
   </si>
   <si>
     <t>MagusApex</t>
+  </si>
+  <si>
+    <t>Rhazes</t>
+  </si>
+  <si>
+    <t>Legionnaire</t>
   </si>
 </sst>
 </file>
@@ -522,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +554,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +585,26 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -582,10 +624,10 @@
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
         <v>0.04757747708424269</v>
@@ -596,8 +638,14 @@
       <c r="K2" t="n">
         <v>0.004015713662156264</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -617,10 +665,10 @@
         <v>657.6</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
         <v>0.3664630901796392</v>
@@ -631,8 +679,14 @@
       <c r="K3" t="n">
         <v>0.01560637362605161</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -652,10 +706,10 @@
         <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
         <v>0.2141883245144024</v>
@@ -666,8 +720,14 @@
       <c r="K4" t="n">
         <v>0.002906491512126725</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -687,10 +747,10 @@
         <v>149.2</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
         <v>0.1066476054324517</v>
@@ -701,8 +761,14 @@
       <c r="K5" t="n">
         <v>0.003145103645461043</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -722,10 +788,10 @@
         <v>86.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
         <v>0.04792013311148087</v>
@@ -736,8 +802,14 @@
       <c r="K6" t="n">
         <v>0.002329450915141431</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -757,10 +829,10 @@
         <v>480.2</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
         <v>0.2513800105711588</v>
@@ -771,8 +843,14 @@
       <c r="K7" t="n">
         <v>0.0109674669488444</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -792,10 +870,10 @@
         <v>130.8</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
         <v>0.06792066649981547</v>
@@ -806,8 +884,14 @@
       <c r="K8" t="n">
         <v>0.006099860438875197</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -827,10 +911,10 @@
         <v>164.6</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
         <v>0.1022892261213072</v>
@@ -841,8 +925,14 @@
       <c r="K9" t="n">
         <v>0.004469218966757388</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -862,10 +952,10 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
         <v>0.04492900608519269</v>
@@ -876,8 +966,14 @@
       <c r="K10" t="n">
         <v>0.002332657200811359</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -897,10 +993,10 @@
         <v>280.2</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
         <v>0.159638044020158</v>
@@ -911,8 +1007,14 @@
       <c r="K11" t="n">
         <v>0.004319325341924065</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -932,10 +1034,10 @@
         <v>126.2</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I12" t="n">
         <v>0.07671732522796353</v>
@@ -946,8 +1048,14 @@
       <c r="K12" t="n">
         <v>0.0009726443768996961</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -967,10 +1075,10 @@
         <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I13" t="n">
         <v>0.07865168539325842</v>
@@ -981,8 +1089,14 @@
       <c r="K13" t="n">
         <v>0.0008426966292134832</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1002,10 +1116,10 @@
         <v>561.4</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I14" t="n">
         <v>0.289253144899517</v>
@@ -1016,8 +1130,14 @@
       <c r="K14" t="n">
         <v>0.0150719445607847</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1037,10 +1157,10 @@
         <v>276.4</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I15" t="n">
         <v>0.1694716065887709</v>
@@ -1051,8 +1171,14 @@
       <c r="K15" t="n">
         <v>0.005643001350454141</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1072,10 +1198,10 @@
         <v>353</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I16" t="n">
         <v>0.2184510921120268</v>
@@ -1086,8 +1212,14 @@
       <c r="K16" t="n">
         <v>0.007415576077779594</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1107,10 +1239,10 @@
         <v>314.8</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I17" t="n">
         <v>0.1799305340164066</v>
@@ -1121,8 +1253,14 @@
       <c r="K17" t="n">
         <v>0.0003861003861003861</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1142,10 +1280,10 @@
         <v>66.8</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
         <v>0.02950530035335689</v>
@@ -1156,8 +1294,14 @@
       <c r="K18" t="n">
         <v>0.002738515901060071</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1177,10 +1321,10 @@
         <v>446.2</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I19" t="n">
         <v>0.2633887527262866</v>
@@ -1191,8 +1335,14 @@
       <c r="K19" t="n">
         <v>0.01127627503185067</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1212,10 +1362,10 @@
         <v>406.6</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I20" t="n">
         <v>0.214253144899517</v>
@@ -1226,8 +1376,14 @@
       <c r="K20" t="n">
         <v>0.01158357246776144</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1247,10 +1403,10 @@
         <v>229.6</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
         <v>0.1242981404229443</v>
@@ -1261,8 +1417,14 @@
       <c r="K21" t="n">
         <v>0.00490817992779415</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1282,10 +1444,10 @@
         <v>147.4</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I22" t="n">
         <v>0.1023365636679312</v>
@@ -1296,8 +1458,14 @@
       <c r="K22" t="n">
         <v>0.006562597733466744</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1317,10 +1485,10 @@
         <v>48.2</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
         <v>0.0265564738292011</v>
@@ -1331,8 +1499,14 @@
       <c r="K23" t="n">
         <v>0.001763085399449036</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1352,10 +1526,10 @@
         <v>387</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I24" t="n">
         <v>0.2388622264459989</v>
@@ -1366,8 +1540,14 @@
       <c r="K24" t="n">
         <v>0.01057342292541073</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1387,10 +1567,10 @@
         <v>166.6</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I25" t="n">
         <v>0.08681605002605523</v>
@@ -1401,8 +1581,14 @@
       <c r="K25" t="n">
         <v>0.00198019801980198</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1422,10 +1608,10 @@
         <v>261.8</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I26" t="n">
         <v>0.1402474847197543</v>
@@ -1436,8 +1622,14 @@
       <c r="K26" t="n">
         <v>0.01212078784368607</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1457,10 +1649,10 @@
         <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
         <v>0.1358153214579285</v>
@@ -1471,8 +1663,14 @@
       <c r="K27" t="n">
         <v>0.002414201070972095</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1492,10 +1690,10 @@
         <v>337.6</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
         <v>0.14870839441833</v>
@@ -1506,8 +1704,14 @@
       <c r="K28" t="n">
         <v>0.0184983408593355</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1527,10 +1731,10 @@
         <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" t="n">
         <v>0.1770029291245475</v>
@@ -1541,8 +1745,14 @@
       <c r="K29" t="n">
         <v>0.005438693865781797</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1562,10 +1772,10 @@
         <v>631.8</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" t="n">
         <v>0.3630221843467553</v>
@@ -1576,8 +1786,14 @@
       <c r="K30" t="n">
         <v>0.01093748027354024</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1598,7 +1814,7 @@
       </c>
       <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1609,8 +1825,14 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1630,10 +1852,10 @@
         <v>272.5</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I32" t="n">
         <v>0.1591705607476636</v>
@@ -1644,8 +1866,14 @@
       <c r="K32" t="n">
         <v>0.01372663551401869</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -1666,7 +1894,7 @@
       </c>
       <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1677,8 +1905,14 @@
       <c r="K33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -1698,10 +1932,10 @@
         <v>207</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I34" t="n">
         <v>0.1269938650306748</v>
@@ -1712,8 +1946,14 @@
       <c r="K34" t="n">
         <v>0.00245398773006135</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -1734,7 +1974,7 @@
       </c>
       <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1745,8 +1985,14 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -1767,7 +2013,7 @@
       </c>
       <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1778,8 +2024,14 @@
       <c r="K36" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -1799,10 +2051,10 @@
         <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" t="n">
         <v>0.1120331950207469</v>
@@ -1813,8 +2065,14 @@
       <c r="K37" t="n">
         <v>0.00437989857076994</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -1834,10 +2092,10 @@
         <v>204.4</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" t="n">
         <v>0.09128055152368671</v>
@@ -1848,8 +2106,14 @@
       <c r="K38" t="n">
         <v>0.008167217339014521</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -1869,10 +2133,10 @@
         <v>215.4</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I39" t="n">
         <v>0.1187514263010913</v>
@@ -1883,8 +2147,14 @@
       <c r="K39" t="n">
         <v>0.003086678567510356</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -1904,10 +2174,10 @@
         <v>144.2</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I40" t="n">
         <v>0.07387201437406728</v>
@@ -1918,8 +2188,14 @@
       <c r="K40" t="n">
         <v>0.00546712006355476</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -1939,10 +2215,10 @@
         <v>280.8</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
         <v>0.154526359571592</v>
@@ -1953,8 +2229,14 @@
       <c r="K41" t="n">
         <v>0.006825017206633095</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -1974,10 +2256,10 @@
         <v>193.6</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
         <v>0.06429757555629359</v>
@@ -1988,8 +2270,14 @@
       <c r="K42" t="n">
         <v>0.001660577881102624</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2009,10 +2297,10 @@
         <v>204.2</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I43" t="n">
         <v>0.1078900314795383</v>
@@ -2023,8 +2311,14 @@
       <c r="K43" t="n">
         <v>0.004447037425673313</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2044,10 +2338,10 @@
         <v>286.4</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I44" t="n">
         <v>0.1618235216992612</v>
@@ -2058,8 +2352,14 @@
       <c r="K44" t="n">
         <v>0.009080032401669283</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2079,10 +2379,10 @@
         <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I45" t="n">
         <v>0.08620600414078675</v>
@@ -2093,8 +2393,14 @@
       <c r="K45" t="n">
         <v>0.006946169772256728</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -2114,10 +2420,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I46" t="n">
         <v>0.06722925457102671</v>
@@ -2128,8 +2434,14 @@
       <c r="K46" t="n">
         <v>0.001406469760900141</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" t="s"/>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -2149,10 +2461,10 @@
         <v>323.6</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
         <v>0.17855598675708</v>
@@ -2163,8 +2475,14 @@
       <c r="K47" t="n">
         <v>0.006341493230895424</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" t="s"/>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -2184,10 +2502,10 @@
         <v>136.6</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I48" t="n">
         <v>0.07717514124293785</v>
@@ -2198,8 +2516,14 @@
       <c r="K48" t="n">
         <v>0.002485875706214689</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" t="s"/>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -2219,10 +2543,10 @@
         <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" t="n">
         <v>0.1751054852320675</v>
@@ -2233,8 +2557,14 @@
       <c r="K49" t="n">
         <v>0.002531645569620253</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2254,10 +2584,10 @@
         <v>366.6</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" t="n">
         <v>0.1949690809435287</v>
@@ -2268,8 +2598,14 @@
       <c r="K50" t="n">
         <v>0.008763317485602414</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -2289,10 +2625,10 @@
         <v>286.2</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
         <v>0.1699525553653752</v>
@@ -2303,8 +2639,14 @@
       <c r="K51" t="n">
         <v>0.01215288164343084</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2324,10 +2666,10 @@
         <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I52" t="n">
         <v>0.06937799043062201</v>
@@ -2338,8 +2680,14 @@
       <c r="K52" t="n">
         <v>0.001555023923444976</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2359,10 +2707,10 @@
         <v>253.6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I53" t="n">
         <v>0.13711238076999</v>
@@ -2373,8 +2721,14 @@
       <c r="K53" t="n">
         <v>0.007707535390238893</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -2394,10 +2748,10 @@
         <v>126</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I54" t="n">
         <v>0.08197787898503578</v>
@@ -2408,8 +2762,14 @@
       <c r="K54" t="n">
         <v>0.0022121014964216</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -2429,10 +2789,10 @@
         <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I55" t="n">
         <v>0.02279043913285158</v>
@@ -2443,8 +2803,14 @@
       <c r="K55" t="n">
         <v>0.002445803224013341</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -2464,10 +2830,10 @@
         <v>187.4</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I56" t="n">
         <v>0.1066721808657292</v>
@@ -2478,8 +2844,14 @@
       <c r="K56" t="n">
         <v>0.003094384707287933</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2499,10 +2871,10 @@
         <v>227.4</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I57" t="n">
         <v>0.1559623334516667</v>
@@ -2513,8 +2885,14 @@
       <c r="K57" t="n">
         <v>0.00728984276207101</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -2534,10 +2912,10 @@
         <v>69.2</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I58" t="n">
         <v>0.04989185291997116</v>
@@ -2548,8 +2926,14 @@
       <c r="K58" t="n">
         <v>0.0001441961067051189</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -2569,10 +2953,10 @@
         <v>51.25</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
         <v>0.02848804891606448</v>
@@ -2583,8 +2967,14 @@
       <c r="K59" t="n">
         <v>0.003057254030016676</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -2604,10 +2994,10 @@
         <v>234.25</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
         <v>0.1333402260821616</v>
@@ -2618,8 +3008,14 @@
       <c r="K60" t="n">
         <v>0.003867980884109916</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -2639,10 +3035,10 @@
         <v>86.5</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I61" t="n">
         <v>0.06236481614996395</v>
@@ -2653,8 +3049,14 @@
       <c r="K61" t="n">
         <v>0.0001802451333813987</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -2674,10 +3076,10 @@
         <v>293</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
         <v>0.1866635435052542</v>
@@ -2688,8 +3090,14 @@
       <c r="K62" t="n">
         <v>0.008109015746182139</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -2709,10 +3117,10 @@
         <v>190.1666666666667</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I63" t="n">
         <v>0.1218115490704444</v>
@@ -2723,8 +3131,14 @@
       <c r="K63" t="n">
         <v>0.003099699320719843</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -2744,10 +3158,10 @@
         <v>34.16666666666666</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I64" t="n">
         <v>0.01899203261070965</v>
@@ -2758,8 +3172,14 @@
       <c r="K64" t="n">
         <v>0.002038169353344451</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" t="s"/>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -2779,10 +3199,10 @@
         <v>156.1666666666667</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I65" t="n">
         <v>0.08889348405477437</v>
@@ -2793,8 +3213,14 @@
       <c r="K65" t="n">
         <v>0.002578653922739944</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" t="s"/>
+      <c r="M65" t="s"/>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -2814,10 +3240,10 @@
         <v>326.8333333333333</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I66" t="n">
         <v>0.2035312852870734</v>
@@ -2828,8 +3254,14 @@
       <c r="K66" t="n">
         <v>0.01053000296511503</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" t="s"/>
+      <c r="M66" t="s"/>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -2849,10 +3281,10 @@
         <v>266.6666666666667</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
         <v>0.1534088627803535</v>
@@ -2863,8 +3295,14 @@
       <c r="K67" t="n">
         <v>0.004630813408796165</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" t="s"/>
+      <c r="M67" t="s"/>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -2884,10 +3322,10 @@
         <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I68" t="n">
         <v>0.0753000669539336</v>
@@ -2898,8 +3336,14 @@
       <c r="K68" t="n">
         <v>0.001234990624037989</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" t="s"/>
+      <c r="M68" t="s"/>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -2919,10 +3363,10 @@
         <v>97.5</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I69" t="n">
         <v>0.06376716808371484</v>
@@ -2933,8 +3377,14 @@
       <c r="K69" t="n">
         <v>0.002616088947024199</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" t="s"/>
+      <c r="M69" t="s"/>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -2954,10 +3404,10 @@
         <v>107</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I70" t="n">
         <v>0.1138297872340426</v>
@@ -2968,8 +3418,14 @@
       <c r="K70" t="n">
         <v>0.0007978723404255319</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" t="s"/>
+      <c r="M70" t="s"/>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -2989,10 +3445,10 @@
         <v>168.5</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I71" t="n">
         <v>0.1027973605081667</v>
@@ -3003,8 +3459,14 @@
       <c r="K71" t="n">
         <v>0.005183907954944446</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" t="s"/>
+      <c r="M71" t="s"/>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -3024,10 +3486,10 @@
         <v>184.8</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I72" t="n">
         <v>0.1252319415552276</v>
@@ -3038,8 +3500,14 @@
       <c r="K72" t="n">
         <v>0.006262433353588783</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -3059,10 +3527,10 @@
         <v>122.4</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I73" t="n">
         <v>0.2741484069016619</v>
@@ -3073,8 +3541,14 @@
       <c r="K73" t="n">
         <v>0.0006382978723404255</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -3094,10 +3568,10 @@
         <v>134.8</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I74" t="n">
         <v>0.08223788840653333</v>
@@ -3108,8 +3582,14 @@
       <c r="K74" t="n">
         <v>0.004147126363955557</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -3129,10 +3609,10 @@
         <v>338.2</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I75" t="n">
         <v>0.2035710766994756</v>
@@ -3143,8 +3623,14 @@
       <c r="K75" t="n">
         <v>0.004878862988729487</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" t="s"/>
+      <c r="M75" t="s"/>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -3164,10 +3650,10 @@
         <v>418.4</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I76" t="n">
         <v>0.2610849084904173</v>
@@ -3178,8 +3664,14 @@
       <c r="K76" t="n">
         <v>0.01083898607259163</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" t="s"/>
+      <c r="M76" t="s"/>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -3199,10 +3691,10 @@
         <v>290.2</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I77" t="n">
         <v>0.1626965738779845</v>
@@ -3213,8 +3705,14 @@
       <c r="K77" t="n">
         <v>0.008076131122476515</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" t="s"/>
+      <c r="M77" t="s"/>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -3234,10 +3732,10 @@
         <v>277</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I78" t="n">
         <v>0.1732162768976951</v>
@@ -3248,8 +3746,14 @@
       <c r="K78" t="n">
         <v>0.007451505815154731</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" t="s"/>
+      <c r="M78" t="s"/>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -3269,10 +3773,10 @@
         <v>189.8</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I79" t="n">
         <v>0.1326668137825705</v>
@@ -3283,8 +3787,14 @@
       <c r="K79" t="n">
         <v>0.002312426436265864</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -3304,10 +3814,10 @@
         <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I80" t="n">
         <v>0.1657745401248908</v>
@@ -3318,8 +3828,14 @@
       <c r="K80" t="n">
         <v>0.007222150099747813</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" t="s"/>
+      <c r="M80" t="s"/>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -3339,10 +3855,10 @@
         <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" t="n">
         <v>0.03181386514719848</v>
@@ -3353,8 +3869,14 @@
       <c r="K81" t="n">
         <v>0.002659069325735992</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" t="s"/>
+      <c r="M81" t="s"/>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -3374,10 +3896,10 @@
         <v>393.2</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I82" t="n">
         <v>0.2543512071886021</v>
@@ -3388,8 +3910,14 @@
       <c r="K82" t="n">
         <v>0.01003492981994257</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -3409,10 +3937,10 @@
         <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I83" t="n">
         <v>0.08455882352941177</v>
@@ -3423,8 +3951,14 @@
       <c r="K83" t="n">
         <v>0.001838235294117647</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" t="s"/>
+      <c r="M83" t="s"/>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -3444,10 +3978,10 @@
         <v>278.8</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I84" t="n">
         <v>0.1567269453783251</v>
@@ -3458,8 +3992,14 @@
       <c r="K84" t="n">
         <v>0.004627791059971394</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" t="s"/>
+      <c r="M84" t="s"/>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -3479,10 +4019,10 @@
         <v>601.6</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
         <v>0.3650378058503125</v>
@@ -3493,8 +4033,14 @@
       <c r="K85" t="n">
         <v>0.01215785495934224</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" t="s"/>
+      <c r="M85" t="s"/>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -3514,10 +4060,10 @@
         <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I86" t="n">
         <v>0.06647673314339982</v>
@@ -3528,8 +4074,14 @@
       <c r="K86" t="n">
         <v>0.008072174738841406</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -3549,10 +4101,10 @@
         <v>568.8</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I87" t="n">
         <v>0.3700377677125054</v>
@@ -3563,8 +4115,14 @@
       <c r="K87" t="n">
         <v>0.01184026237028092</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" t="s"/>
+      <c r="M87" t="s"/>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -3584,10 +4142,10 @@
         <v>178.4</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I88" t="n">
         <v>0.1073600976001576</v>
@@ -3598,8 +4156,14 @@
       <c r="K88" t="n">
         <v>0.005132192138943827</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" t="s"/>
+      <c r="M88" t="s"/>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -3619,10 +4183,10 @@
         <v>328.6</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I89" t="n">
         <v>0.2473481266503256</v>
@@ -3633,8 +4197,14 @@
       <c r="K89" t="n">
         <v>0.007220967752454279</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" t="s"/>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -3654,10 +4224,10 @@
         <v>221.4</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" t="n">
         <v>0.1749684198889241</v>
@@ -3668,8 +4238,14 @@
       <c r="K90" t="n">
         <v>0.002463335941977546</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" t="s"/>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -3689,10 +4265,10 @@
         <v>198</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I91" t="n">
         <v>0.1261950286806883</v>
@@ -3703,8 +4279,14 @@
       <c r="K91" t="n">
         <v>0.003059273422562141</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" t="s"/>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -3724,10 +4306,10 @@
         <v>142</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I92" t="n">
         <v>0.09318200287130592</v>
@@ -3738,8 +4320,14 @@
       <c r="K92" t="n">
         <v>0.005347130048487147</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" t="s"/>
+      <c r="M92" t="s"/>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -3759,10 +4347,10 @@
         <v>430.2</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I93" t="n">
         <v>0.2063731471137939</v>
@@ -3773,8 +4361,14 @@
       <c r="K93" t="n">
         <v>0.009152606233594018</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" t="s"/>
+      <c r="M93" t="s"/>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -3794,10 +4388,10 @@
         <v>610.2</v>
       </c>
       <c r="G94" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I94" t="n">
         <v>0.3863354585100985</v>
@@ -3808,8 +4402,14 @@
       <c r="K94" t="n">
         <v>0.009556019006126104</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" t="s"/>
+      <c r="M94" t="s"/>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -3829,10 +4429,10 @@
         <v>292</v>
       </c>
       <c r="G95" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I95" t="n">
         <v>0.1968040937674682</v>
@@ -3843,8 +4443,14 @@
       <c r="K95" t="n">
         <v>0.00344223402841273</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" t="s"/>
+      <c r="M95" t="s"/>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
@@ -3864,10 +4470,10 @@
         <v>318.2</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I96" t="n">
         <v>0.2513900194630072</v>
@@ -3878,10 +4484,16 @@
       <c r="K96" t="n">
         <v>0.008399989526632901</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" t="s"/>
+      <c r="M96" t="s"/>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>11.47138019017781</v>
@@ -3899,10 +4511,10 @@
         <v>373.4</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I97" t="n">
         <v>0.2602785146347409</v>
@@ -3913,10 +4525,16 @@
       <c r="K97" t="n">
         <v>0.0102324902907245</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" t="s"/>
+      <c r="M97" t="s"/>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>6.506973090568204</v>
@@ -3934,10 +4552,10 @@
         <v>370.2</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I98" t="n">
         <v>0.2520432498535652</v>
@@ -3948,10 +4566,16 @@
       <c r="K98" t="n">
         <v>0.008581153657621576</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" t="s"/>
+      <c r="M98" t="s"/>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -3970,7 +4594,7 @@
       </c>
       <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -3981,10 +4605,28 @@
       <c r="K99" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>1.775319622012229</v>
@@ -4002,10 +4644,10 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I100" t="n">
         <v>0.02279043913285158</v>
@@ -4016,10 +4658,28 @@
       <c r="K100" t="n">
         <v>0.002445803224013341</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3193.8</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>11.47138019017781</v>
@@ -4037,10 +4697,10 @@
         <v>373.4</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I101" t="n">
         <v>0.2602785146347409</v>
@@ -4051,75 +4711,553 @@
       <c r="K101" t="n">
         <v>0.0102324902907245</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N101" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O101" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P101" t="n">
+        <v>16820.8</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.521364781962862</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5509.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.02315500601117796</v>
+      </c>
+      <c r="E102" t="n">
+        <v>39</v>
+      </c>
+      <c r="F102" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.1407672854618739</v>
+      </c>
+      <c r="J102" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.006652370274832259</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O102" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5509.8</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11.88986405621855</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24323.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.06772743430497362</v>
+      </c>
+      <c r="E103" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>419.6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.2200418102370287</v>
+      </c>
+      <c r="J103" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.009974714369893688</v>
+      </c>
+      <c r="L103" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M103" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N103" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O103" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="P103" t="n">
+        <v>24323.6</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.367795452665148</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5565.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.02368314567867807</v>
+      </c>
+      <c r="E104" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.1556420496852366</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.007666538805779314</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5565.4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B102" t="n">
-        <v>6.506973090568204</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9534.4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.04526183093699399</v>
-      </c>
-      <c r="E102" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F102" t="n">
-        <v>370.2</v>
-      </c>
-      <c r="G102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.2520432498535652</v>
-      </c>
-      <c r="J102" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.008581153657621576</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1" t="n">
+      <c r="B105" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J105" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.008167217339014521</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O105" t="n">
+        <v>6</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B103" t="n">
-        <v>2.383936531395372</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3065.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.01186318291444714</v>
-      </c>
-      <c r="E103" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>318.2</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.2513900194630072</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.008399989526632901</v>
+      <c r="B106" t="n">
+        <v>2.791646791513082</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01949175076877424</v>
+      </c>
+      <c r="E106" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>53</v>
+      </c>
+      <c r="H106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.1749684198889241</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.002463335941977546</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.07100063734863</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4818.4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.02179732313575526</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>198</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1261950286806883</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.003059273422562141</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O107" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4818.4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.401661721068249</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5731.8</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01946587537091988</v>
+      </c>
+      <c r="E108" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>95</v>
+      </c>
+      <c r="G108" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.05637982195845698</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.002017804154302671</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5731.8</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.051184931793103</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10365</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.04676938705455664</v>
+      </c>
+      <c r="E109" t="n">
+        <v>104</v>
+      </c>
+      <c r="F109" t="n">
+        <v>510.6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.263353030243158</v>
+      </c>
+      <c r="J109" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.01043172921424848</v>
+      </c>
+      <c r="L109" t="n">
+        <v>7</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="P109" t="n">
+        <v>10365</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.964295310237989</v>
+      </c>
+      <c r="C110" t="n">
+        <v>14008.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01772881186533461</v>
+      </c>
+      <c r="E110" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>294.8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.1511437556030386</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.006184842200486853</v>
+      </c>
+      <c r="L110" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P110" t="n">
+        <v>14008.6</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.492262232954012</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6874.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.02960201155971191</v>
+      </c>
+      <c r="E111" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>251</v>
+      </c>
+      <c r="G111" t="s">
+        <v>60</v>
+      </c>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.1395292372567488</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.00399634160439429</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O111" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P111" t="n">
+        <v>6874.2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Legionnaire</t>
+  </si>
+  <si>
+    <t>Shiller</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4997,7 +5000,7 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="1" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>3.07100063734863</v>
@@ -5050,7 +5053,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="1" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>3.401661721068249</v>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="1" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>5.051184931793103</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="1" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>6.964295310237989</v>
@@ -5209,7 +5212,7 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="1" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>3.492262232954012</v>
@@ -5258,6 +5261,536 @@
       </c>
       <c r="Q111" t="n">
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.216968384995974</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8024.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.02488615319747506</v>
+      </c>
+      <c r="E112" t="n">
+        <v>42</v>
+      </c>
+      <c r="F112" t="n">
+        <v>405</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.2687247564521539</v>
+      </c>
+      <c r="J112" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.01157631324186954</v>
+      </c>
+      <c r="L112" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O112" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="P112" t="n">
+        <v>8024.8</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.383936531395372</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3065.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.01186318291444714</v>
+      </c>
+      <c r="E113" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.2513900194630072</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.008399989526632901</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3065.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.416763848396501</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="E114" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" t="s">
+        <v>24</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.02959183673469388</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.002478134110787172</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P114" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.526515336917045</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.04081966133960498</v>
+      </c>
+      <c r="E115" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="G115" t="s">
+        <v>61</v>
+      </c>
+      <c r="H115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.1137729726188463</v>
+      </c>
+      <c r="J115" t="n">
+        <v>7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.003974587084214064</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P115" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.249264705882353</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.01409313725490196</v>
+      </c>
+      <c r="E116" t="n">
+        <v>23</v>
+      </c>
+      <c r="F116" t="n">
+        <v>138</v>
+      </c>
+      <c r="G116" t="s">
+        <v>51</v>
+      </c>
+      <c r="H116" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.08455882352941177</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.001838235294117647</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O116" t="n">
+        <v>2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E117" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F117" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J117" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.008167217339014521</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O117" t="n">
+        <v>6</v>
+      </c>
+      <c r="P117" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.791646791513082</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.01949175076877424</v>
+      </c>
+      <c r="E118" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>53</v>
+      </c>
+      <c r="H118" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.1749684198889241</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.002463335941977546</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O118" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P118" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.416763848396501</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="E119" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F119" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.02959183673469388</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.002478134110787172</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P119" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.526515336917045</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.04081966133960498</v>
+      </c>
+      <c r="E120" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.1137729726188463</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.003974587084214064</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N120" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P120" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.249264705882353</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.01409313725490196</v>
+      </c>
+      <c r="E121" t="n">
+        <v>23</v>
+      </c>
+      <c r="F121" t="n">
+        <v>138</v>
+      </c>
+      <c r="G121" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.08455882352941177</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.001838235294117647</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -201,6 +201,36 @@
   </si>
   <si>
     <t>Shiller</t>
+  </si>
+  <si>
+    <t>Hakan Muhafız</t>
+  </si>
+  <si>
+    <t>TWİSTED</t>
+  </si>
+  <si>
+    <t>Inmate 4859</t>
+  </si>
+  <si>
+    <t>annemkızıyo</t>
+  </si>
+  <si>
+    <t>BÜYÜK  ÇÜK LAMAR</t>
+  </si>
+  <si>
+    <t>Inuwâ Dân X</t>
+  </si>
+  <si>
+    <t>Takizawà</t>
+  </si>
+  <si>
+    <t>1against9 L9</t>
+  </si>
+  <si>
+    <t>Mr F Scofield</t>
+  </si>
+  <si>
+    <t>atkı</t>
   </si>
 </sst>
 </file>
@@ -549,7 +579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5371,7 +5401,7 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="1" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>2.416763848396501</v>
@@ -5424,7 +5454,7 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="1" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>7.526515336917045</v>
@@ -5477,7 +5507,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>1.249264705882353</v>
@@ -5530,267 +5560,532 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="1" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.901710291787398</v>
+        <v>2.416463478170262</v>
       </c>
       <c r="C117" t="n">
-        <v>4185.8</v>
+        <v>2964.4</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01349240180076153</v>
+        <v>0.03885207398533574</v>
       </c>
       <c r="E117" t="n">
-        <v>29.6</v>
+        <v>48.2</v>
       </c>
       <c r="F117" t="n">
-        <v>204.4</v>
+        <v>171.8</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H117" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I117" t="n">
-        <v>0.09128055152368671</v>
+        <v>0.1353850873429003</v>
       </c>
       <c r="J117" t="n">
-        <v>18.6</v>
+        <v>4.6</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008167217339014521</v>
+        <v>0.003765798965385793</v>
       </c>
       <c r="L117" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="M117" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N117" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="P117" t="n">
-        <v>4185.8</v>
+        <v>2964.4</v>
       </c>
       <c r="Q117" t="n">
-        <v>18.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="1" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.791646791513082</v>
+        <v>5.161185769562334</v>
       </c>
       <c r="C118" t="n">
-        <v>3890.6</v>
+        <v>8200.6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01949175076877424</v>
+        <v>0.02945888127014684</v>
       </c>
       <c r="E118" t="n">
-        <v>28.2</v>
+        <v>47.4</v>
       </c>
       <c r="F118" t="n">
         <v>221.4</v>
       </c>
       <c r="G118" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1749684198889241</v>
+        <v>0.1383712522209088</v>
       </c>
       <c r="J118" t="n">
-        <v>3.2</v>
+        <v>12.6</v>
       </c>
       <c r="K118" t="n">
-        <v>0.002463335941977546</v>
+        <v>0.008441246441123099</v>
       </c>
       <c r="L118" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="N118" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="O118" t="n">
-        <v>5.6</v>
+        <v>14.6</v>
       </c>
       <c r="P118" t="n">
-        <v>3890.6</v>
+        <v>8200.6</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="1" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.416763848396501</v>
+        <v>2.068847369766977</v>
       </c>
       <c r="C119" t="n">
-        <v>3315.8</v>
+        <v>3795.4</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.005055885542121584</v>
       </c>
       <c r="E119" t="n">
-        <v>22.4</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>40.6</v>
+        <v>241.4</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H119" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02959183673469388</v>
+        <v>0.1233551760989223</v>
       </c>
       <c r="J119" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="K119" t="n">
-        <v>0.002478134110787172</v>
+        <v>0.005858238664598527</v>
       </c>
       <c r="L119" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N119" t="n">
         <v>1.8</v>
       </c>
-      <c r="M119" t="n">
-        <v>2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.6</v>
-      </c>
       <c r="O119" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P119" t="n">
-        <v>3315.8</v>
+        <v>3795.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="1" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7.526515336917045</v>
+        <v>1.505994397759104</v>
       </c>
       <c r="C120" t="n">
-        <v>12752.4</v>
+        <v>2688.2</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04081966133960498</v>
+        <v>0.01490196078431373</v>
       </c>
       <c r="E120" t="n">
-        <v>72.8</v>
+        <v>26.6</v>
       </c>
       <c r="F120" t="n">
-        <v>209.8</v>
+        <v>45.6</v>
       </c>
       <c r="G120" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1137729726188463</v>
+        <v>0.02554621848739496</v>
       </c>
       <c r="J120" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="K120" t="n">
-        <v>0.003974587084214064</v>
+        <v>0.001568627450980392</v>
       </c>
       <c r="L120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O120" t="n">
         <v>2.4</v>
       </c>
-      <c r="N120" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O120" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P120" t="n">
-        <v>12752.4</v>
+        <v>2688.2</v>
       </c>
       <c r="Q120" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.799488925521617</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7293.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.01015607778491264</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>66</v>
+      </c>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.1551790318097739</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.003255853515943223</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O121" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="P121" t="n">
+        <v>7293.8</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.552368248186704</v>
+      </c>
+      <c r="C122" t="n">
+        <v>13156.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.03811254470716262</v>
+      </c>
+      <c r="E122" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>208.8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.08970024567781631</v>
+      </c>
+      <c r="J122" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.0041437734423764</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O122" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="P122" t="n">
+        <v>13156.8</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B121" t="n">
-        <v>1.249264705882353</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2038.8</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.01409313725490196</v>
-      </c>
-      <c r="E121" t="n">
-        <v>23</v>
-      </c>
-      <c r="F121" t="n">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s">
-        <v>51</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="B123" t="n">
+        <v>8.640537996803857</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19508.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.06836728990692152</v>
+      </c>
+      <c r="E123" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" t="s">
         <v>24</v>
       </c>
-      <c r="I121" t="n">
-        <v>0.08455882352941177</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.001838235294117647</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N121" t="n">
+      <c r="I123" t="n">
+        <v>0.1609056249067745</v>
+      </c>
+      <c r="J123" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.008901090469941059</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O123" t="n">
+        <v>14</v>
+      </c>
+      <c r="P123" t="n">
+        <v>19508.6</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.958948577935138</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7422.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.05297472115560431</v>
+      </c>
+      <c r="E124" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.2438613715321066</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.003429869180006317</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M124" t="n">
         <v>1.2</v>
       </c>
-      <c r="O121" t="n">
-        <v>2</v>
-      </c>
-      <c r="P121" t="n">
-        <v>2038.8</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>3</v>
+      <c r="N124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P124" t="n">
+        <v>7422.2</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.578175204713018</v>
+      </c>
+      <c r="C125" t="n">
+        <v>13639.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.07927726354393795</v>
+      </c>
+      <c r="E125" t="n">
+        <v>145</v>
+      </c>
+      <c r="F125" t="n">
+        <v>588.4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>24</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.3224582848240293</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.006465115763260081</v>
+      </c>
+      <c r="L125" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6</v>
+      </c>
+      <c r="O125" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P125" t="n">
+        <v>13639.6</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.718499124373624</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6698</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.03749183615672267</v>
+      </c>
+      <c r="E126" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.19180321236396</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.005053780220669405</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O126" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="P126" t="n">
+        <v>6698</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>

--- a/lolMineSite/results/api/lol.xlsx
+++ b/lolMineSite/results/api/lol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Aggression Point</t>
   </si>
@@ -231,6 +231,54 @@
   </si>
   <si>
     <t>atkı</t>
+  </si>
+  <si>
+    <t>Alex Morán</t>
+  </si>
+  <si>
+    <t>Swis2</t>
+  </si>
+  <si>
+    <t>Mothman</t>
+  </si>
+  <si>
+    <t>spirâl static</t>
+  </si>
+  <si>
+    <t>Hidên</t>
+  </si>
+  <si>
+    <t>Mid ART</t>
+  </si>
+  <si>
+    <t>FFFFFFFFFFFFFFFx</t>
+  </si>
+  <si>
+    <t>Rozalin</t>
+  </si>
+  <si>
+    <t>Wèncy</t>
+  </si>
+  <si>
+    <t>Esmilsjus</t>
+  </si>
+  <si>
+    <t>Crowleyxx</t>
+  </si>
+  <si>
+    <t>Cruel Angel</t>
+  </si>
+  <si>
+    <t>Arkadan Destek</t>
+  </si>
+  <si>
+    <t>G0DPLANK</t>
+  </si>
+  <si>
+    <t>Fr33ska</t>
+  </si>
+  <si>
+    <t>GOD VLAD</t>
   </si>
 </sst>
 </file>
@@ -579,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6088,6 +6136,1755 @@
         <v>7.2</v>
       </c>
     </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.867459865844664</v>
+      </c>
+      <c r="C127" t="n">
+        <v>17363.375</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0787680063084748</v>
+      </c>
+      <c r="E127" t="n">
+        <v>141</v>
+      </c>
+      <c r="F127" t="n">
+        <v>393</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.2260867724465993</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.005804560794410608</v>
+      </c>
+      <c r="L127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M127" t="n">
+        <v>6</v>
+      </c>
+      <c r="N127" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="O127" t="n">
+        <v>9.625</v>
+      </c>
+      <c r="P127" t="n">
+        <v>17363.375</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>13.08713266217595</v>
+      </c>
+      <c r="C128" t="n">
+        <v>23249.25</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1010215349192339</v>
+      </c>
+      <c r="E128" t="n">
+        <v>177.125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>511.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.2982716629054957</v>
+      </c>
+      <c r="J128" t="n">
+        <v>21</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.01206850574568317</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3</v>
+      </c>
+      <c r="M128" t="n">
+        <v>7.625</v>
+      </c>
+      <c r="N128" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O128" t="n">
+        <v>23</v>
+      </c>
+      <c r="P128" t="n">
+        <v>23249.25</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.864392543799816</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12862.375</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.07284957409801583</v>
+      </c>
+      <c r="E129" t="n">
+        <v>112.75</v>
+      </c>
+      <c r="F129" t="n">
+        <v>473.125</v>
+      </c>
+      <c r="G129" t="s">
+        <v>74</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.3018254757154735</v>
+      </c>
+      <c r="J129" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.00535907153462585</v>
+      </c>
+      <c r="L129" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="M129" t="n">
+        <v>5</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O129" t="n">
+        <v>9</v>
+      </c>
+      <c r="P129" t="n">
+        <v>12862.375</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.477744430659834</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12401.875</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.03787178198329388</v>
+      </c>
+      <c r="E130" t="n">
+        <v>72.875</v>
+      </c>
+      <c r="F130" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.181936308563384</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.004908320964534705</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="O130" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P130" t="n">
+        <v>12401.875</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>10.41530249499472</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16232.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.09249357242590009</v>
+      </c>
+      <c r="E131" t="n">
+        <v>142.375</v>
+      </c>
+      <c r="F131" t="n">
+        <v>416.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.2696740363716156</v>
+      </c>
+      <c r="J131" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.01123036036037216</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M131" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N131" t="n">
+        <v>6</v>
+      </c>
+      <c r="O131" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="P131" t="n">
+        <v>16232.5</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>17.375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8.688888298120233</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13735.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.07951564843883388</v>
+      </c>
+      <c r="E132" t="n">
+        <v>121.375</v>
+      </c>
+      <c r="F132" t="n">
+        <v>515.625</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.3131334046063297</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.007302665954453161</v>
+      </c>
+      <c r="L132" t="n">
+        <v>5</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="O132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P132" t="n">
+        <v>13735.5</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.659833613964341</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16043.875</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0619060653611579</v>
+      </c>
+      <c r="E133" t="n">
+        <v>103</v>
+      </c>
+      <c r="F133" t="n">
+        <v>306.875</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.1890864977541152</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.008668371351962419</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4.125</v>
+      </c>
+      <c r="M133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N133" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="O133" t="n">
+        <v>12.625</v>
+      </c>
+      <c r="P133" t="n">
+        <v>16043.875</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>14.375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.510682240585708</v>
+      </c>
+      <c r="C134" t="n">
+        <v>8310.125</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.01805818133110513</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>423.875</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.2960288131408376</v>
+      </c>
+      <c r="J134" t="n">
+        <v>12.125</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.008321944070613934</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="O134" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P134" t="n">
+        <v>8310.125</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>12.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.27709698953676</v>
+      </c>
+      <c r="C135" t="n">
+        <v>19843.85714285714</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.09002057863825692</v>
+      </c>
+      <c r="E135" t="n">
+        <v>161.1428571428571</v>
+      </c>
+      <c r="F135" t="n">
+        <v>449.1428571428572</v>
+      </c>
+      <c r="G135" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.2583848827961134</v>
+      </c>
+      <c r="J135" t="n">
+        <v>11.71428571428571</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.006633783765040695</v>
+      </c>
+      <c r="L135" t="n">
+        <v>4.285714285714286</v>
+      </c>
+      <c r="M135" t="n">
+        <v>6.857142857142857</v>
+      </c>
+      <c r="N135" t="n">
+        <v>7.285714285714286</v>
+      </c>
+      <c r="O135" t="n">
+        <v>11</v>
+      </c>
+      <c r="P135" t="n">
+        <v>19843.85714285714</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>11.71428571428571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.23946711193832</v>
+      </c>
+      <c r="C136" t="n">
+        <v>22145.71428571429</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.09919631586005433</v>
+      </c>
+      <c r="E136" t="n">
+        <v>178.4285714285714</v>
+      </c>
+      <c r="F136" t="n">
+        <v>481.4285714285714</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.2783116799968069</v>
+      </c>
+      <c r="J136" t="n">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.00929546538558511</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2.571428571428572</v>
+      </c>
+      <c r="M136" t="n">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="N136" t="n">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="O136" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="P136" t="n">
+        <v>22145.71428571429</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>16.85714285714286</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.762810131274856</v>
+      </c>
+      <c r="C137" t="n">
+        <v>13140.71428571429</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.05758859706565025</v>
+      </c>
+      <c r="E137" t="n">
+        <v>95.85714285714286</v>
+      </c>
+      <c r="F137" t="n">
+        <v>405.1428571428572</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.2370772586394002</v>
+      </c>
+      <c r="J137" t="n">
+        <v>8.714285714285714</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.005100784903071001</v>
+      </c>
+      <c r="L137" t="n">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="O137" t="n">
+        <v>9.285714285714286</v>
+      </c>
+      <c r="P137" t="n">
+        <v>13140.71428571429</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>8.714285714285714</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.929446907590052</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5253</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.01597583293472917</v>
+      </c>
+      <c r="E138" t="n">
+        <v>28.85714285714286</v>
+      </c>
+      <c r="F138" t="n">
+        <v>247</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.1370901637070076</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.003175456489627228</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="P138" t="n">
+        <v>5253</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>5.714285714285714</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.624738015532241</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15295.28571428571</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0791511798404682</v>
+      </c>
+      <c r="E139" t="n">
+        <v>125</v>
+      </c>
+      <c r="F139" t="n">
+        <v>328.1428571428572</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.2050122347547375</v>
+      </c>
+      <c r="J139" t="n">
+        <v>14.71428571428571</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.009219905753794966</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="O139" t="n">
+        <v>23.42857142857143</v>
+      </c>
+      <c r="P139" t="n">
+        <v>15295.28571428571</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>14.71428571428571</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.064167284735571</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9634.142857142857</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.04880485066296562</v>
+      </c>
+      <c r="E140" t="n">
+        <v>73</v>
+      </c>
+      <c r="F140" t="n">
+        <v>416.5714285714286</v>
+      </c>
+      <c r="G140" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.2465720969491943</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7.142857142857143</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.004205136234423884</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="P140" t="n">
+        <v>9634.142857142857</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>7.142857142857143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.236482722837542</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10361.85714285714</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.05011430585846257</v>
+      </c>
+      <c r="E141" t="n">
+        <v>93.28571428571429</v>
+      </c>
+      <c r="F141" t="n">
+        <v>358.7142857142857</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.2304125688441721</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12.14285714285714</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.007572788237168111</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2.714285714285714</v>
+      </c>
+      <c r="M141" t="n">
+        <v>5.857142857142857</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="O141" t="n">
+        <v>10.14285714285714</v>
+      </c>
+      <c r="P141" t="n">
+        <v>10361.85714285714</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>12.14285714285714</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.745494037555874</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9832.857142857143</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.06457535515189312</v>
+      </c>
+      <c r="E142" t="n">
+        <v>103.2857142857143</v>
+      </c>
+      <c r="F142" t="n">
+        <v>439.5714285714286</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.2803746168676239</v>
+      </c>
+      <c r="J142" t="n">
+        <v>12.28571428571429</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.007376300267512547</v>
+      </c>
+      <c r="L142" t="n">
+        <v>5.428571428571429</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="O142" t="n">
+        <v>5.142857142857143</v>
+      </c>
+      <c r="P142" t="n">
+        <v>9832.857142857143</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>12.28571428571429</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7.096802689526113</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11628.57142857143</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.06938910634948067</v>
+      </c>
+      <c r="E143" t="n">
+        <v>112.1428571428571</v>
+      </c>
+      <c r="F143" t="n">
+        <v>468.1428571428572</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.2885087611333231</v>
+      </c>
+      <c r="J143" t="n">
+        <v>13.28571428571429</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.00828684245447556</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3.571428571428572</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="N143" t="n">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="O143" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="P143" t="n">
+        <v>11628.57142857143</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>13.28571428571429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9.872350824292718</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16961.71428571429</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.05960013345903381</v>
+      </c>
+      <c r="E144" t="n">
+        <v>82.57142857142857</v>
+      </c>
+      <c r="F144" t="n">
+        <v>336.1428571428572</v>
+      </c>
+      <c r="G144" t="s">
+        <v>83</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.2131525788312446</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5.428571428571429</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.00291856108828295</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="N144" t="n">
+        <v>7.285714285714286</v>
+      </c>
+      <c r="O144" t="n">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="P144" t="n">
+        <v>16961.71428571429</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>5.428571428571429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.237636825135143</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3694.285714285714</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.008950393858894897</v>
+      </c>
+      <c r="E145" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="F145" t="n">
+        <v>423</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.2595822812913882</v>
+      </c>
+      <c r="J145" t="n">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.01311696862038163</v>
+      </c>
+      <c r="L145" t="n">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="O145" t="n">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="P145" t="n">
+        <v>3694.285714285714</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>21.71428571428572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.981142908818997</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6464.857142857143</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.04377437393628632</v>
+      </c>
+      <c r="E146" t="n">
+        <v>54.14285714285715</v>
+      </c>
+      <c r="F146" t="n">
+        <v>254.5714285714286</v>
+      </c>
+      <c r="G146" t="s">
+        <v>85</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.2538151185031755</v>
+      </c>
+      <c r="J146" t="n">
+        <v>13.57142857142857</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.009839437541890607</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="M146" t="n">
+        <v>4.428571428571429</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="O146" t="n">
+        <v>9.285714285714286</v>
+      </c>
+      <c r="P146" t="n">
+        <v>6464.857142857143</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>13.57142857142857</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>10.31903945211388</v>
+      </c>
+      <c r="C147" t="n">
+        <v>19630.57142857143</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.07442317140298797</v>
+      </c>
+      <c r="E147" t="n">
+        <v>136.2857142857143</v>
+      </c>
+      <c r="F147" t="n">
+        <v>369.2857142857143</v>
+      </c>
+      <c r="G147" t="s">
+        <v>86</v>
+      </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.2154147649650015</v>
+      </c>
+      <c r="J147" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.009456195317854186</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="M147" t="n">
+        <v>7</v>
+      </c>
+      <c r="N147" t="n">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="O147" t="n">
+        <v>13.57142857142857</v>
+      </c>
+      <c r="P147" t="n">
+        <v>19630.57142857143</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>17.14285714285714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>13.56445225501712</v>
+      </c>
+      <c r="C148" t="n">
+        <v>23669.57142857143</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0778201401658029</v>
+      </c>
+      <c r="E148" t="n">
+        <v>131</v>
+      </c>
+      <c r="F148" t="n">
+        <v>755.4285714285714</v>
+      </c>
+      <c r="G148" t="s">
+        <v>87</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.4563136948672321</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29.71428571428572</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.01778852948185603</v>
+      </c>
+      <c r="L148" t="n">
+        <v>7</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3.428571428571428</v>
+      </c>
+      <c r="N148" t="n">
+        <v>8.714285714285714</v>
+      </c>
+      <c r="O148" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="P148" t="n">
+        <v>23669.57142857143</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>29.71428571428572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.083752370239521</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5386</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.05487903816630266</v>
+      </c>
+      <c r="E149" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.2559780488442502</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.005650866177851041</v>
+      </c>
+      <c r="L149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O149" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5386</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.08444040200281</v>
+      </c>
+      <c r="C150" t="n">
+        <v>8187.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.06244161473530012</v>
+      </c>
+      <c r="E150" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="G150" t="s">
+        <v>82</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.251165003662212</v>
+      </c>
+      <c r="J150" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0059489931918879</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="n">
+        <v>15</v>
+      </c>
+      <c r="P150" t="n">
+        <v>8187.6</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.8004077475819</v>
+      </c>
+      <c r="C151" t="n">
+        <v>23426.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.05845023458599043</v>
+      </c>
+      <c r="E151" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="G151" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.226541550156781</v>
+      </c>
+      <c r="J151" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.004085985523596129</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+      <c r="N151" t="n">
+        <v>10</v>
+      </c>
+      <c r="O151" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P151" t="n">
+        <v>23426.6</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.04948453608247423</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.001030927835051546</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>84</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.045345941668782</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11177.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.04749281849379321</v>
+      </c>
+      <c r="E153" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>545.4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.343561973780649</v>
+      </c>
+      <c r="J153" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.01834723699590118</v>
+      </c>
+      <c r="L153" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O153" t="n">
+        <v>15</v>
+      </c>
+      <c r="P153" t="n">
+        <v>11177.2</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.053229399318344</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10310.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.01263490410100751</v>
+      </c>
+      <c r="E154" t="n">
+        <v>23</v>
+      </c>
+      <c r="F154" t="n">
+        <v>314</v>
+      </c>
+      <c r="G154" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.2124750854596635</v>
+      </c>
+      <c r="J154" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.01465033299760304</v>
+      </c>
+      <c r="L154" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>4</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O154" t="n">
+        <v>11</v>
+      </c>
+      <c r="P154" t="n">
+        <v>10310.2</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.901710291787398</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.01349240180076153</v>
+      </c>
+      <c r="E155" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.09128055152368671</v>
+      </c>
+      <c r="J155" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.008167217339014521</v>
+      </c>
+      <c r="L155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>4</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P155" t="n">
+        <v>4185.8</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.791646791513082</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.01949175076877424</v>
+      </c>
+      <c r="E156" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>53</v>
+      </c>
+      <c r="H156" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.1749684198889241</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.002463335941977546</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O156" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P156" t="n">
+        <v>3890.6</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.416763848396501</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0163265306122449</v>
+      </c>
+      <c r="E157" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G157" t="s">
+        <v>49</v>
+      </c>
+      <c r="H157" t="s">
+        <v>24</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.02959183673469388</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.002478134110787172</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P157" t="n">
+        <v>3315.8</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.526515336917045</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.04081966133960498</v>
+      </c>
+      <c r="E158" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>61</v>
+      </c>
+      <c r="H158" t="s">
+        <v>24</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.1137729726188463</v>
+      </c>
+      <c r="J158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.003974587084214064</v>
+      </c>
+      <c r="L158" t="n">
+        <v>3</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N158" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P158" t="n">
+        <v>12752.4</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.249264705882353</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.01409313725490196</v>
+      </c>
+      <c r="E159" t="n">
+        <v>23</v>
+      </c>
+      <c r="F159" t="n">
+        <v>138</v>
+      </c>
+      <c r="G159" t="s">
+        <v>51</v>
+      </c>
+      <c r="H159" t="s">
+        <v>24</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.08455882352941177</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.001838235294117647</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O159" t="n">
+        <v>2</v>
+      </c>
+      <c r="P159" t="n">
+        <v>2038.8</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
